--- a/public/templates/api_key_template.xlsx
+++ b/public/templates/api_key_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIkeyManager\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B9D95B-3E77-4F38-966E-A4BE45731E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9D8732-A24C-4ACA-90FB-D5B3E1BAF8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C502AA95-8F04-4A6D-A3F4-98ED631016B3}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C502AA95-8F04-4A6D-A3F4-98ED631016B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,31 +30,31 @@
     <t>API Key</t>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sk-xxxxxxxxxxxxxxxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>openai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openai的编程专用模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例contex</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg_openai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg_openai contex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,43 +422,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
